--- a/智慧运维V4.0.3开发计划 - 前端.xlsx
+++ b/智慧运维V4.0.3开发计划 - 前端.xlsx
@@ -581,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,6 +677,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,14 +698,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1011,7 +1014,7 @@
   <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B25" sqref="B25:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1815,10 +1818,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="10">
@@ -1841,8 +1844,8 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="29">
         <v>2</v>
       </c>
@@ -1861,8 +1864,8 @@
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="10">
         <v>3</v>
       </c>
@@ -1883,8 +1886,8 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="17">
         <v>4</v>
       </c>
@@ -1903,8 +1906,8 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="29">
         <v>5</v>
       </c>
@@ -1917,16 +1920,16 @@
       <c r="G8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="17">
         <v>6</v>
       </c>
@@ -1947,8 +1950,8 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="10">
         <v>7</v>
       </c>
@@ -1969,8 +1972,8 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="10">
         <v>8</v>
       </c>
@@ -1989,8 +1992,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="16" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="17">
         <v>9</v>
       </c>
@@ -2011,8 +2014,8 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="3">
         <v>10</v>
       </c>
@@ -2031,8 +2034,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="3">
         <v>11</v>
       </c>
@@ -2051,8 +2054,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="20">
         <v>12</v>
       </c>
@@ -2071,8 +2074,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="3">
         <v>13</v>
       </c>
@@ -2091,8 +2094,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="3">
         <v>14</v>
       </c>
@@ -2111,8 +2114,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="28">
         <v>15</v>
       </c>
@@ -2131,8 +2134,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="28">
         <v>16</v>
       </c>
@@ -2150,32 +2153,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="28">
         <v>1</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="32"/>
+      <c r="I20" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
@@ -2219,7 +2222,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="3" t="s">
         <v>59</v>
       </c>
@@ -2240,57 +2243,57 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
-      <c r="C24" s="3" t="s">
+    <row r="24" spans="2:9" s="34" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="38"/>
+      <c r="C24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="28">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="11" t="s">
+      <c r="H24" s="30"/>
+      <c r="I24" s="31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/智慧运维V4.0.3开发计划 - 前端.xlsx
+++ b/智慧运维V4.0.3开发计划 - 前端.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -683,26 +683,26 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -725,7 +725,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1812,16 +1812,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:11" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="10">
@@ -1844,8 +1844,8 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="29">
         <v>2</v>
       </c>
@@ -1864,8 +1864,8 @@
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="10">
         <v>3</v>
       </c>
@@ -1886,8 +1886,8 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="17">
         <v>4</v>
       </c>
@@ -1906,8 +1906,8 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="29">
         <v>5</v>
       </c>
@@ -1928,8 +1928,8 @@
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="17">
         <v>6</v>
       </c>
@@ -1950,8 +1950,8 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="10">
         <v>7</v>
       </c>
@@ -1972,8 +1972,8 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="10">
         <v>8</v>
       </c>
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="16" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="17">
         <v>9</v>
       </c>
@@ -2013,49 +2013,49 @@
       <c r="J12" s="18"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="3">
+    <row r="13" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="28">
         <v>10</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="3">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="28">
         <v>11</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="20">
         <v>12</v>
       </c>
@@ -2074,8 +2074,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="3">
         <v>13</v>
       </c>
@@ -2094,8 +2094,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="3">
         <v>14</v>
       </c>
@@ -2114,8 +2114,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="28">
         <v>15</v>
       </c>
@@ -2134,8 +2134,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="28">
         <v>16</v>
       </c>
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -2163,7 +2163,7 @@
       <c r="D20" s="28">
         <v>1</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="30" t="s">
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="3" t="s">
         <v>59</v>
       </c>
@@ -2244,14 +2244,14 @@
       </c>
     </row>
     <row r="24" spans="2:9" s="34" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="28">
         <v>5</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="32" t="s">
@@ -2266,34 +2266,34 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/智慧运维V4.0.3开发计划 - 前端.xlsx
+++ b/智慧运维V4.0.3开发计划 - 前端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="V4.0.3配置迭代功能需求" sheetId="5" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -692,17 +692,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -725,7 +725,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1024,7 @@
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="4.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="65" style="2" customWidth="1"/>
@@ -1812,8 +1812,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:11" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2266,34 +2266,34 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/智慧运维V4.0.3开发计划 - 前端.xlsx
+++ b/智慧运维V4.0.3开发计划 - 前端.xlsx
@@ -441,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,17 +698,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1014,7 +1033,7 @@
   <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="A13:XFD13"/>
+      <selection activeCell="D10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1812,8 +1831,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:11" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1949,27 +1968,27 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="10">
+      <c r="D10" s="45">
         <v>7</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="48"/>
+      <c r="I10" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B11" s="39"/>
@@ -2266,34 +2285,34 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/智慧运维V4.0.3开发计划 - 前端.xlsx
+++ b/智慧运维V4.0.3开发计划 - 前端.xlsx
@@ -692,24 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -722,6 +704,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -1831,16 +1831,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:11" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="10">
@@ -1863,8 +1863,8 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="29">
         <v>2</v>
       </c>
@@ -1883,8 +1883,8 @@
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="10">
         <v>3</v>
       </c>
@@ -1905,8 +1905,8 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="17">
         <v>4</v>
       </c>
@@ -1925,8 +1925,8 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="29">
         <v>5</v>
       </c>
@@ -1947,8 +1947,8 @@
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="17">
         <v>6</v>
       </c>
@@ -1968,31 +1968,31 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="45">
+    <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="39">
         <v>7</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="46" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="10">
         <v>8</v>
       </c>
@@ -2011,8 +2011,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="16" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="17">
         <v>9</v>
       </c>
@@ -2033,8 +2033,8 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="28">
         <v>10</v>
       </c>
@@ -2053,8 +2053,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="28">
         <v>11</v>
       </c>
@@ -2073,8 +2073,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="20">
         <v>12</v>
       </c>
@@ -2093,8 +2093,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="3">
         <v>13</v>
       </c>
@@ -2113,8 +2113,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="3">
         <v>14</v>
       </c>
@@ -2133,8 +2133,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="28">
         <v>15</v>
       </c>
@@ -2153,8 +2153,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="28">
         <v>16</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="3" t="s">
         <v>59</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" s="34" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="28" t="s">
         <v>59</v>
       </c>
@@ -2285,34 +2285,34 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/智慧运维V4.0.3开发计划 - 前端.xlsx
+++ b/智慧运维V4.0.3开发计划 - 前端.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>项目时间</t>
   </si>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统计图表（存储容量、上传流量、下载流量、写入请求、读取请求、删除请求、删除容量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,11 +344,19 @@
     <t>S1开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>彭放、王静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -744,7 +748,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1033,7 +1037,7 @@
   <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="A10:XFD10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1811,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -1828,36 +1832,36 @@
         <v>6</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -1869,13 +1873,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -1889,13 +1893,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
@@ -1911,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>8</v>
@@ -1931,17 +1935,17 @@
         <v>5</v>
       </c>
       <c r="E8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>30</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="31"/>
@@ -1953,17 +1957,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
@@ -1975,17 +1979,17 @@
         <v>7</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="40"/>
@@ -1997,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>13</v>
@@ -2017,7 +2021,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>9</v>
@@ -2027,7 +2031,7 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="17"/>
@@ -2039,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>15</v>
@@ -2059,7 +2063,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>17</v>
@@ -2079,36 +2083,36 @@
         <v>12</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
-      <c r="D16" s="3">
+      <c r="D16" s="28">
         <v>13</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2119,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>22</v>
@@ -2145,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="33" t="s">
@@ -2162,22 +2166,22 @@
         <v>5</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="28">
         <v>1</v>
@@ -2186,20 +2190,20 @@
         <v>4</v>
       </c>
       <c r="F20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="44"/>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -2208,20 +2212,20 @@
         <v>4</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="44"/>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -2230,20 +2234,20 @@
         <v>4</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="44"/>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
@@ -2252,20 +2256,20 @@
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="34" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B24" s="44"/>
       <c r="C24" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="28">
         <v>5</v>
@@ -2274,19 +2278,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>66</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>67</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
